--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>41.4148056366349</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N2">
-        <v>41.4148056366349</v>
+        <v>0.353392</v>
       </c>
       <c r="O2">
-        <v>0.4218918535179724</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P2">
-        <v>0.4218918535179724</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q2">
-        <v>5710.735901161647</v>
+        <v>17.87292663947555</v>
       </c>
       <c r="R2">
-        <v>5710.735901161647</v>
+        <v>160.85633975528</v>
       </c>
       <c r="S2">
-        <v>0.1103635370749613</v>
+        <v>0.0002807247844404112</v>
       </c>
       <c r="T2">
-        <v>0.1103635370749613</v>
+        <v>0.0002894413957445984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>56.7497009574007</v>
+        <v>0.020824</v>
       </c>
       <c r="N3">
-        <v>56.7497009574007</v>
+        <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.5781081464820276</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P3">
-        <v>0.5781081464820276</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q3">
-        <v>7825.282520484346</v>
+        <v>3.159543716386667</v>
       </c>
       <c r="R3">
-        <v>7825.282520484346</v>
+        <v>28.43589344748</v>
       </c>
       <c r="S3">
-        <v>0.1512284708168428</v>
+        <v>4.962602077455451E-05</v>
       </c>
       <c r="T3">
-        <v>0.1512284708168428</v>
+        <v>5.116692759020168E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.4148056366349</v>
+        <v>54.104803</v>
       </c>
       <c r="N4">
-        <v>41.4148056366349</v>
+        <v>162.314409</v>
       </c>
       <c r="O4">
-        <v>0.4218918535179724</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P4">
-        <v>0.4218918535179724</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q4">
-        <v>3131.17730079373</v>
+        <v>8209.109217488884</v>
       </c>
       <c r="R4">
-        <v>3131.17730079373</v>
+        <v>73881.98295739995</v>
       </c>
       <c r="S4">
-        <v>0.06051195644577655</v>
+        <v>0.1289380559777747</v>
       </c>
       <c r="T4">
-        <v>0.06051195644577655</v>
+        <v>0.1329416316453672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>455.178215</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.7497009574007</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N5">
-        <v>56.7497009574007</v>
+        <v>176.802616</v>
       </c>
       <c r="O5">
-        <v>0.5781081464820276</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P5">
-        <v>0.5781081464820276</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q5">
-        <v>4290.576105166129</v>
+        <v>8941.855462023383</v>
       </c>
       <c r="R5">
-        <v>4290.576105166129</v>
+        <v>80476.69915821044</v>
       </c>
       <c r="S5">
-        <v>0.08291806226919438</v>
+        <v>0.1404470850078689</v>
       </c>
       <c r="T5">
-        <v>0.08291806226919438</v>
+        <v>0.1448080204032244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.916721093036</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H6">
-        <v>113.916721093036</v>
+        <v>455.178215</v>
       </c>
       <c r="I6">
-        <v>0.2161103161480222</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J6">
-        <v>0.2161103161480222</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>41.4148056366349</v>
+        <v>0.150414</v>
       </c>
       <c r="N6">
-        <v>41.4148056366349</v>
+        <v>0.300828</v>
       </c>
       <c r="O6">
-        <v>0.4218918535179724</v>
+        <v>0.001327244300117055</v>
       </c>
       <c r="P6">
-        <v>0.4218918535179724</v>
+        <v>0.0008852211683280384</v>
       </c>
       <c r="Q6">
-        <v>4717.838862830834</v>
+        <v>22.82172534367</v>
       </c>
       <c r="R6">
-        <v>4717.838862830834</v>
+        <v>136.93035206202</v>
       </c>
       <c r="S6">
-        <v>0.09117518184404406</v>
+        <v>0.0003584541053007992</v>
       </c>
       <c r="T6">
-        <v>0.09117518184404406</v>
+        <v>0.0002463894943831667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.916721093036</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>113.916721093036</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.2161103161480222</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.2161103161480222</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>56.7497009574007</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N7">
-        <v>56.7497009574007</v>
+        <v>0.353392</v>
       </c>
       <c r="O7">
-        <v>0.5781081464820276</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P7">
-        <v>0.5781081464820276</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q7">
-        <v>6464.739856077414</v>
+        <v>9.688697673477332</v>
       </c>
       <c r="R7">
-        <v>6464.739856077414</v>
+        <v>87.19827906129599</v>
       </c>
       <c r="S7">
-        <v>0.1249351343039781</v>
+        <v>0.0001521775152306587</v>
       </c>
       <c r="T7">
-        <v>0.1249351343039781</v>
+        <v>0.0001569026849449995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J8">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>41.4148056366349</v>
+        <v>0.020824</v>
       </c>
       <c r="N8">
-        <v>41.4148056366349</v>
+        <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.4218918535179724</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P8">
-        <v>0.4218918535179724</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q8">
-        <v>6249.577990943846</v>
+        <v>1.712750489704</v>
       </c>
       <c r="R8">
-        <v>6249.577990943846</v>
+        <v>15.414754407336</v>
       </c>
       <c r="S8">
-        <v>0.1207769969131462</v>
+        <v>2.69016665105314E-05</v>
       </c>
       <c r="T8">
-        <v>0.1207769969131462</v>
+        <v>2.773697348520626E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.902023922951</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
-        <v>150.902023922951</v>
+        <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.2862747784913111</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J9">
-        <v>0.2862747784913111</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.7497009574007</v>
+        <v>54.104803</v>
       </c>
       <c r="N9">
-        <v>56.7497009574007</v>
+        <v>162.314409</v>
       </c>
       <c r="O9">
-        <v>0.5781081464820276</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P9">
-        <v>0.5781081464820276</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q9">
-        <v>8563.644731493996</v>
+        <v>4450.058962427413</v>
       </c>
       <c r="R9">
-        <v>8563.644731493996</v>
+        <v>40050.53066184672</v>
       </c>
       <c r="S9">
-        <v>0.1654977815781649</v>
+        <v>0.06989576291413749</v>
       </c>
       <c r="T9">
-        <v>0.1654977815781649</v>
+        <v>0.07206605293091185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.8078372759574</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
-        <v>48.8078372759574</v>
+        <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.09259287875389165</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J10">
-        <v>0.09259287875389165</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.4148056366349</v>
+        <v>58.93420533333333</v>
       </c>
       <c r="N10">
-        <v>41.4148056366349</v>
+        <v>176.802616</v>
       </c>
       <c r="O10">
-        <v>0.4218918535179724</v>
+        <v>0.5200319658449</v>
       </c>
       <c r="P10">
-        <v>0.4218918535179724</v>
+        <v>0.5202621374970865</v>
       </c>
       <c r="Q10">
-        <v>2021.36709432828</v>
+        <v>4847.271851948844</v>
       </c>
       <c r="R10">
-        <v>2021.36709432828</v>
+        <v>43625.44666753961</v>
       </c>
       <c r="S10">
-        <v>0.03906418124004423</v>
+        <v>0.07613466855265628</v>
       </c>
       <c r="T10">
-        <v>0.03906418124004423</v>
+        <v>0.0784986789618886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>82.24887099999999</v>
+      </c>
+      <c r="H11">
+        <v>246.746613</v>
+      </c>
+      <c r="I11">
+        <v>0.146403824289839</v>
+      </c>
+      <c r="J11">
+        <v>0.150882936320401</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.150414</v>
+      </c>
+      <c r="N11">
+        <v>0.300828</v>
+      </c>
+      <c r="O11">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P11">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q11">
+        <v>12.371381682594</v>
+      </c>
+      <c r="R11">
+        <v>74.22829009556399</v>
+      </c>
+      <c r="S11">
+        <v>0.0001943136413040276</v>
+      </c>
+      <c r="T11">
+        <v>0.0001335647691703104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>123.444321</v>
+      </c>
+      <c r="H12">
+        <v>370.332963</v>
+      </c>
+      <c r="I12">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J12">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.353392</v>
+      </c>
+      <c r="O12">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P12">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q12">
+        <v>14.541411828944</v>
+      </c>
+      <c r="R12">
+        <v>130.872706460496</v>
+      </c>
+      <c r="S12">
+        <v>0.0002283976644386502</v>
+      </c>
+      <c r="T12">
+        <v>0.000235489498769076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>123.444321</v>
+      </c>
+      <c r="H13">
+        <v>370.332963</v>
+      </c>
+      <c r="I13">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J13">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020824</v>
+      </c>
+      <c r="N13">
+        <v>0.062472</v>
+      </c>
+      <c r="O13">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P13">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q13">
+        <v>2.570604540504</v>
+      </c>
+      <c r="R13">
+        <v>23.135440864536</v>
+      </c>
+      <c r="S13">
+        <v>4.037572693442793E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.162940860885848E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>123.444321</v>
+      </c>
+      <c r="H14">
+        <v>370.332963</v>
+      </c>
+      <c r="I14">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J14">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.104803</v>
+      </c>
+      <c r="N14">
+        <v>162.314409</v>
+      </c>
+      <c r="O14">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P14">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q14">
+        <v>6678.930669173764</v>
+      </c>
+      <c r="R14">
+        <v>60110.37602256387</v>
+      </c>
+      <c r="S14">
+        <v>0.1049039930738099</v>
+      </c>
+      <c r="T14">
+        <v>0.1081613019491352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="H11">
-        <v>48.8078372759574</v>
-      </c>
-      <c r="I11">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="J11">
-        <v>0.09259287875389165</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="N11">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="O11">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="P11">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="Q11">
-        <v>2769.830169788057</v>
-      </c>
-      <c r="R11">
-        <v>2769.830169788057</v>
-      </c>
-      <c r="S11">
-        <v>0.05352869751384741</v>
-      </c>
-      <c r="T11">
-        <v>0.05352869751384741</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>123.444321</v>
+      </c>
+      <c r="H15">
+        <v>370.332963</v>
+      </c>
+      <c r="I15">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J15">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N15">
+        <v>176.802616</v>
+      </c>
+      <c r="O15">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P15">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q15">
+        <v>7275.092961047912</v>
+      </c>
+      <c r="R15">
+        <v>65475.83664943121</v>
+      </c>
+      <c r="S15">
+        <v>0.1142677382652791</v>
+      </c>
+      <c r="T15">
+        <v>0.1178157949894209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>123.444321</v>
+      </c>
+      <c r="H16">
+        <v>370.332963</v>
+      </c>
+      <c r="I16">
+        <v>0.2197321429647646</v>
+      </c>
+      <c r="J16">
+        <v>0.2264546783208506</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.150414</v>
+      </c>
+      <c r="N16">
+        <v>0.300828</v>
+      </c>
+      <c r="O16">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P16">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q16">
+        <v>18.567754098894</v>
+      </c>
+      <c r="R16">
+        <v>111.406524593364</v>
+      </c>
+      <c r="S16">
+        <v>0.0002916382343024896</v>
+      </c>
+      <c r="T16">
+        <v>0.0002004624749165335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H17">
+        <v>463.02893</v>
+      </c>
+      <c r="I17">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J17">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.353392</v>
+      </c>
+      <c r="O17">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P17">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q17">
+        <v>18.18119107006222</v>
+      </c>
+      <c r="R17">
+        <v>163.63071963056</v>
+      </c>
+      <c r="S17">
+        <v>0.000285566602883058</v>
+      </c>
+      <c r="T17">
+        <v>0.0002944335544910205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H18">
+        <v>463.02893</v>
+      </c>
+      <c r="I18">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J18">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020824</v>
+      </c>
+      <c r="N18">
+        <v>0.062472</v>
+      </c>
+      <c r="O18">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P18">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q18">
+        <v>3.214038146106666</v>
+      </c>
+      <c r="R18">
+        <v>28.92634331496</v>
+      </c>
+      <c r="S18">
+        <v>5.048194870090552E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.204943240413771E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H19">
+        <v>463.02893</v>
+      </c>
+      <c r="I19">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J19">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.104803</v>
+      </c>
+      <c r="N19">
+        <v>162.314409</v>
+      </c>
+      <c r="O19">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P19">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q19">
+        <v>8350.696346983597</v>
+      </c>
+      <c r="R19">
+        <v>75156.26712285238</v>
+      </c>
+      <c r="S19">
+        <v>0.1311619232385036</v>
+      </c>
+      <c r="T19">
+        <v>0.1352345508301809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H20">
+        <v>463.02893</v>
+      </c>
+      <c r="I20">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J20">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N20">
+        <v>176.802616</v>
+      </c>
+      <c r="O20">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P20">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q20">
+        <v>9096.080678631208</v>
+      </c>
+      <c r="R20">
+        <v>81864.72610768088</v>
+      </c>
+      <c r="S20">
+        <v>0.1428694549733944</v>
+      </c>
+      <c r="T20">
+        <v>0.1473056058773005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>154.3429766666667</v>
+      </c>
+      <c r="H21">
+        <v>463.02893</v>
+      </c>
+      <c r="I21">
+        <v>0.2747320633285943</v>
+      </c>
+      <c r="J21">
+        <v>0.2831372788071194</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.150414</v>
+      </c>
+      <c r="N21">
+        <v>0.300828</v>
+      </c>
+      <c r="O21">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P21">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q21">
+        <v>23.21534449234</v>
+      </c>
+      <c r="R21">
+        <v>139.29206695404</v>
+      </c>
+      <c r="S21">
+        <v>0.0003646365651122745</v>
+      </c>
+      <c r="T21">
+        <v>0.0002506391127428598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.0323125</v>
+      </c>
+      <c r="H22">
+        <v>100.064625</v>
+      </c>
+      <c r="I22">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J22">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.353392</v>
+      </c>
+      <c r="O22">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P22">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q22">
+        <v>5.893672993</v>
+      </c>
+      <c r="R22">
+        <v>35.362037958</v>
+      </c>
+      <c r="S22">
+        <v>9.25701824830377E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.362968123300854E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.0323125</v>
+      </c>
+      <c r="H23">
+        <v>100.064625</v>
+      </c>
+      <c r="I23">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J23">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.020824</v>
+      </c>
+      <c r="N23">
+        <v>0.062472</v>
+      </c>
+      <c r="O23">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P23">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q23">
+        <v>1.0418728755</v>
+      </c>
+      <c r="R23">
+        <v>6.251237253</v>
+      </c>
+      <c r="S23">
+        <v>1.636438979965684E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.124834021706352E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.0323125</v>
+      </c>
+      <c r="H24">
+        <v>100.064625</v>
+      </c>
+      <c r="I24">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J24">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.104803</v>
+      </c>
+      <c r="N24">
+        <v>162.314409</v>
+      </c>
+      <c r="O24">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P24">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q24">
+        <v>2706.988411446938</v>
+      </c>
+      <c r="R24">
+        <v>16241.93046868163</v>
+      </c>
+      <c r="S24">
+        <v>0.04251786814856143</v>
+      </c>
+      <c r="T24">
+        <v>0.02922537608150206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.0323125</v>
+      </c>
+      <c r="H25">
+        <v>100.064625</v>
+      </c>
+      <c r="I25">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J25">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N25">
+        <v>176.802616</v>
+      </c>
+      <c r="O25">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P25">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q25">
+        <v>2948.6145781765</v>
+      </c>
+      <c r="R25">
+        <v>17691.687469059</v>
+      </c>
+      <c r="S25">
+        <v>0.04631301904570121</v>
+      </c>
+      <c r="T25">
+        <v>0.03183403726525223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.0323125</v>
+      </c>
+      <c r="H26">
+        <v>100.064625</v>
+      </c>
+      <c r="I26">
+        <v>0.08905802352064279</v>
+      </c>
+      <c r="J26">
+        <v>0.06118845668531954</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.150414</v>
+      </c>
+      <c r="N26">
+        <v>0.300828</v>
+      </c>
+      <c r="O26">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P26">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q26">
+        <v>7.525560252375</v>
+      </c>
+      <c r="R26">
+        <v>30.1022410095</v>
+      </c>
+      <c r="S26">
+        <v>0.0001182017540974637</v>
+      </c>
+      <c r="T26">
+        <v>5.416531711516814E-05</v>
       </c>
     </row>
   </sheetData>
